--- a/DS/Excel/Topics.xlsx
+++ b/DS/Excel/Topics.xlsx
@@ -8,15 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\21club5sep\DS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4AC228-1652-49DA-9F07-C03067D22F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B183A21-8032-4AE8-B069-BE8FC330A946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1044" yWindow="1548" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{45D75731-A7C4-4BB5-B3D1-6F79D3B35545}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{45D75731-A7C4-4BB5-B3D1-6F79D3B35545}"/>
   </bookViews>
   <sheets>
     <sheet name="Result of students" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
     <sheet name="Array functions" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId5"/>
+    <sheet name="IPL Cities" sheetId="8" r:id="rId6"/>
+    <sheet name="IPL Teams" sheetId="9" r:id="rId7"/>
+    <sheet name="cities" sheetId="10" r:id="rId8"/>
+    <sheet name="population" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="Stu_1">Sheet3!$B$2:$B$15</definedName>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="181">
   <si>
     <t>a</t>
   </si>
@@ -250,14 +255,349 @@
   </si>
   <si>
     <t>Hi Anil</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Number1</t>
+  </si>
+  <si>
+    <t>Number2</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year (short)</t>
+  </si>
+  <si>
+    <t>Year (Full)</t>
+  </si>
+  <si>
+    <t>Month (short)</t>
+  </si>
+  <si>
+    <t>Month (normal)</t>
+  </si>
+  <si>
+    <t>Month (name)</t>
+  </si>
+  <si>
+    <t>Month (name-full)</t>
+  </si>
+  <si>
+    <t>Using 'Text' function</t>
+  </si>
+  <si>
+    <t>Alphabet</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>player_of_match</t>
+  </si>
+  <si>
+    <t>venue</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>neutral_venue</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>BB McCullum</t>
+  </si>
+  <si>
+    <t>M Chinnaswamy Stadium</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>MEK Hussey</t>
+  </si>
+  <si>
+    <t>Punjab Cricket Association Stadium, Mohali</t>
+  </si>
+  <si>
+    <t>Chandigarh</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>MF Maharoof</t>
+  </si>
+  <si>
+    <t>Feroz Shah Kotla</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>MV Boucher</t>
+  </si>
+  <si>
+    <t>Wankhede Stadium</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>DJ Hussey</t>
+  </si>
+  <si>
+    <t>Eden Gardens</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>SR Watson</t>
+  </si>
+  <si>
+    <t>Sawai Mansingh Stadium</t>
+  </si>
+  <si>
+    <t>Jaipur</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>V Sehwag</t>
+  </si>
+  <si>
+    <t>Rajiv Gandhi International Stadium, Uppal</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>ML Hayden</t>
+  </si>
+  <si>
+    <t>MA Chidambaram Stadium, Chepauk</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>YK Pathan</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>KC Sangakkara</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>JDP Oram</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>AC Gilchrist</t>
+  </si>
+  <si>
+    <t>Dr DY Patil Sports Academy</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>SM Katich</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>MS Dhoni</t>
+  </si>
+  <si>
+    <t>ST Jayasuriya</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>GD McGrath</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>SE Marsh</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>SA Asnodkar</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>R Vinay Kumar</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>IK Pathan</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>SM Pollock</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Sohail Tanvir</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>S Sreesanth</t>
+  </si>
+  <si>
+    <t>team1</t>
+  </si>
+  <si>
+    <t>team2</t>
+  </si>
+  <si>
+    <t>toss_winner</t>
+  </si>
+  <si>
+    <t>Royal Challengers Bangalore</t>
+  </si>
+  <si>
+    <t>Kolkata Knight Riders</t>
+  </si>
+  <si>
+    <t>Kings XI Punjab</t>
+  </si>
+  <si>
+    <t>Chennai Super Kings</t>
+  </si>
+  <si>
+    <t>Delhi Daredevils</t>
+  </si>
+  <si>
+    <t>Rajasthan Royals</t>
+  </si>
+  <si>
+    <t>Mumbai Indians</t>
+  </si>
+  <si>
+    <t>Deccan Chargers</t>
+  </si>
+  <si>
+    <t>V Lookup</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Ahmedabad</t>
+  </si>
+  <si>
+    <t>Surat</t>
+  </si>
+  <si>
+    <t>Rajkot</t>
+  </si>
+  <si>
+    <t>Vadodara</t>
+  </si>
+  <si>
+    <t>Bhuj</t>
+  </si>
+  <si>
+    <t>Gorakhpur</t>
+  </si>
+  <si>
+    <t>Mehsana</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>H-Lookup Cities</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -285,11 +625,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1646,8 +1994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34593CE-C954-421E-B90F-12AA80DC1121}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1933,4 +2281,2448 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4629BE-5290-4139-BB10-B3FBA914E559}">
+  <dimension ref="A1:R17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="I1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>39557</v>
+      </c>
+      <c r="B3">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>55</v>
+      </c>
+      <c r="D3" t="b">
+        <f>AND(B3&gt;=30, C3&lt;=40)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <f>OR(B3&gt;=30, C3&lt;=40)</f>
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f>YEAR(A3)</f>
+        <v>2008</v>
+      </c>
+      <c r="G3">
+        <f>MONTH(A3)</f>
+        <v>4</v>
+      </c>
+      <c r="H3" s="4">
+        <f>DAY(A3)</f>
+        <v>19</v>
+      </c>
+      <c r="I3" t="str">
+        <f>TEXT($A3, "yy")</f>
+        <v>08</v>
+      </c>
+      <c r="J3" t="str">
+        <f>TEXT($A3, "yyyy")</f>
+        <v>2008</v>
+      </c>
+      <c r="K3" t="str">
+        <f>TEXT($A3, "m")</f>
+        <v>4</v>
+      </c>
+      <c r="L3" t="str">
+        <f>TEXT($A3, "mm")</f>
+        <v>04</v>
+      </c>
+      <c r="M3" t="str">
+        <f>TEXT($A3, "mmm")</f>
+        <v>Apr</v>
+      </c>
+      <c r="N3" t="str">
+        <f>TEXT($A3, "mmmm")</f>
+        <v>April</v>
+      </c>
+      <c r="O3" t="str">
+        <f>TEXT($A3, "d")</f>
+        <v>19</v>
+      </c>
+      <c r="P3" t="str">
+        <f>TEXT($A3, "dd")</f>
+        <v>19</v>
+      </c>
+      <c r="Q3" t="str">
+        <f>TEXT($A3, "ddd")</f>
+        <v>Sat</v>
+      </c>
+      <c r="R3" t="str">
+        <f>TEXT($A3, "dddd")</f>
+        <v>Saturday</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>39547</v>
+      </c>
+      <c r="B4">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>34</v>
+      </c>
+      <c r="D4" t="b">
+        <f>AND(B4&gt;=30, C4&lt;=40)</f>
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <f t="shared" ref="E4:E17" si="0">OR(B4&gt;=30, C4&lt;=40)</f>
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F17" si="1">YEAR(A4)</f>
+        <v>2008</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G17" si="2">MONTH(A4)</f>
+        <v>4</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" ref="H4:H17" si="3">DAY(A4)</f>
+        <v>9</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" ref="I4:I17" si="4">TEXT($A4, "yy")</f>
+        <v>08</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" ref="J4:J17" si="5">TEXT($A4, "yyyy")</f>
+        <v>2008</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" ref="K4:K17" si="6">TEXT($A4, "m")</f>
+        <v>4</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" ref="L4:L17" si="7">TEXT($A4, "mm")</f>
+        <v>04</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" ref="M4:M17" si="8">TEXT($A4, "mmm")</f>
+        <v>Apr</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" ref="N4:N17" si="9">TEXT($A4, "mmmm")</f>
+        <v>April</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" ref="O4:O17" si="10">TEXT($A4, "d")</f>
+        <v>9</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" ref="P4:P17" si="11">TEXT($A4, "dd")</f>
+        <v>09</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" ref="Q4:Q17" si="12">TEXT($A4, "ddd")</f>
+        <v>Wed</v>
+      </c>
+      <c r="R4" t="str">
+        <f t="shared" ref="R4:R17" si="13">TEXT($A4, "dddd")</f>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>39558</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>44</v>
+      </c>
+      <c r="D5" t="b">
+        <f t="shared" ref="D5:D17" si="14">AND(B5&gt;=30, C5&lt;=40)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>2008</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="5"/>
+        <v>2008</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="7"/>
+        <v>04</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="8"/>
+        <v>Apr</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="9"/>
+        <v>April</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="12"/>
+        <v>Sun</v>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" si="13"/>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>39558</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>2008</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="5"/>
+        <v>2008</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="7"/>
+        <v>04</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="8"/>
+        <v>Apr</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="9"/>
+        <v>April</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="12"/>
+        <v>Sun</v>
+      </c>
+      <c r="R6" t="str">
+        <f t="shared" si="13"/>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>39559</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>88</v>
+      </c>
+      <c r="D7" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>2008</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="5"/>
+        <v>2008</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="7"/>
+        <v>04</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="8"/>
+        <v>Apr</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="9"/>
+        <v>April</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="10"/>
+        <v>21</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="11"/>
+        <v>21</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="12"/>
+        <v>Mon</v>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="13"/>
+        <v>Monday</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>39560</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>2008</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="5"/>
+        <v>2008</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="7"/>
+        <v>04</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="8"/>
+        <v>Apr</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="9"/>
+        <v>April</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="11"/>
+        <v>22</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="12"/>
+        <v>Tue</v>
+      </c>
+      <c r="R8" t="str">
+        <f t="shared" si="13"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>39561</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>2008</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="5"/>
+        <v>2008</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="7"/>
+        <v>04</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="8"/>
+        <v>Apr</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="9"/>
+        <v>April</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="10"/>
+        <v>23</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="11"/>
+        <v>23</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="12"/>
+        <v>Wed</v>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="13"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>39562</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>66</v>
+      </c>
+      <c r="D10" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>2008</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="5"/>
+        <v>2008</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="7"/>
+        <v>04</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="8"/>
+        <v>Apr</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="9"/>
+        <v>April</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="11"/>
+        <v>24</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="12"/>
+        <v>Thu</v>
+      </c>
+      <c r="R10" t="str">
+        <f t="shared" si="13"/>
+        <v>Thursday</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>39563</v>
+      </c>
+      <c r="B11">
+        <v>66</v>
+      </c>
+      <c r="C11">
+        <v>34</v>
+      </c>
+      <c r="D11" t="b">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>2008</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="5"/>
+        <v>2008</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="7"/>
+        <v>04</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="8"/>
+        <v>Apr</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="9"/>
+        <v>April</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="11"/>
+        <v>25</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="12"/>
+        <v>Fri</v>
+      </c>
+      <c r="R11" t="str">
+        <f t="shared" si="13"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>39564</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>23</v>
+      </c>
+      <c r="D12" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>2008</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="5"/>
+        <v>2008</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="7"/>
+        <v>04</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="8"/>
+        <v>Apr</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="9"/>
+        <v>April</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="10"/>
+        <v>26</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="11"/>
+        <v>26</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="12"/>
+        <v>Sat</v>
+      </c>
+      <c r="R12" t="str">
+        <f t="shared" si="13"/>
+        <v>Saturday</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>39564</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>2008</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="5"/>
+        <v>2008</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="7"/>
+        <v>04</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="8"/>
+        <v>Apr</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="9"/>
+        <v>April</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="10"/>
+        <v>26</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="11"/>
+        <v>26</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="12"/>
+        <v>Sat</v>
+      </c>
+      <c r="R13" t="str">
+        <f t="shared" si="13"/>
+        <v>Saturday</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>39565</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>2008</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="5"/>
+        <v>2008</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="7"/>
+        <v>04</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="8"/>
+        <v>Apr</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="9"/>
+        <v>April</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="10"/>
+        <v>27</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="11"/>
+        <v>27</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="12"/>
+        <v>Sun</v>
+      </c>
+      <c r="R14" t="str">
+        <f t="shared" si="13"/>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>39565</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>2008</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="5"/>
+        <v>2008</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="7"/>
+        <v>04</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="8"/>
+        <v>Apr</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="9"/>
+        <v>April</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="10"/>
+        <v>27</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="11"/>
+        <v>27</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="12"/>
+        <v>Sun</v>
+      </c>
+      <c r="R15" t="str">
+        <f t="shared" si="13"/>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>39566</v>
+      </c>
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E16" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>2008</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="5"/>
+        <v>2008</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="7"/>
+        <v>04</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="8"/>
+        <v>Apr</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="9"/>
+        <v>April</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="10"/>
+        <v>28</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="11"/>
+        <v>28</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="12"/>
+        <v>Mon</v>
+      </c>
+      <c r="R16" t="str">
+        <f t="shared" si="13"/>
+        <v>Monday</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>39567</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17" t="b">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>2008</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="4"/>
+        <v>08</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="5"/>
+        <v>2008</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="7"/>
+        <v>04</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="8"/>
+        <v>Apr</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="9"/>
+        <v>April</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="10"/>
+        <v>29</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="11"/>
+        <v>29</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="12"/>
+        <v>Tue</v>
+      </c>
+      <c r="R17" t="str">
+        <f t="shared" si="13"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I1:R1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1CF58A4-528A-40AE-B637-9A8409938DA5}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2">
+        <v>335982</v>
+      </c>
+      <c r="C2" s="2">
+        <v>39556</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3">
+        <v>335983</v>
+      </c>
+      <c r="C3" s="2">
+        <v>39557</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4">
+        <v>335984</v>
+      </c>
+      <c r="C4" s="2">
+        <v>39557</v>
+      </c>
+      <c r="D4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5">
+        <v>335985</v>
+      </c>
+      <c r="C5" s="2">
+        <v>39558</v>
+      </c>
+      <c r="D5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6">
+        <v>335986</v>
+      </c>
+      <c r="C6" s="2">
+        <v>39558</v>
+      </c>
+      <c r="D6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7">
+        <v>335987</v>
+      </c>
+      <c r="C7" s="2">
+        <v>39559</v>
+      </c>
+      <c r="D7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8">
+        <v>335988</v>
+      </c>
+      <c r="C8" s="2">
+        <v>39560</v>
+      </c>
+      <c r="D8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9">
+        <v>335989</v>
+      </c>
+      <c r="C9" s="2">
+        <v>39561</v>
+      </c>
+      <c r="D9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10">
+        <v>335990</v>
+      </c>
+      <c r="C10" s="2">
+        <v>39562</v>
+      </c>
+      <c r="D10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11">
+        <v>335991</v>
+      </c>
+      <c r="C11" s="2">
+        <v>39563</v>
+      </c>
+      <c r="D11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12">
+        <v>335992</v>
+      </c>
+      <c r="C12" s="2">
+        <v>39564</v>
+      </c>
+      <c r="D12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13">
+        <v>335993</v>
+      </c>
+      <c r="C13" s="2">
+        <v>39564</v>
+      </c>
+      <c r="D13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14">
+        <v>335994</v>
+      </c>
+      <c r="C14" s="2">
+        <v>39565</v>
+      </c>
+      <c r="D14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15">
+        <v>335995</v>
+      </c>
+      <c r="C15" s="2">
+        <v>39565</v>
+      </c>
+      <c r="D15" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16">
+        <v>335996</v>
+      </c>
+      <c r="C16" s="2">
+        <v>39566</v>
+      </c>
+      <c r="D16" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>335997</v>
+      </c>
+      <c r="C17" s="2">
+        <v>39567</v>
+      </c>
+      <c r="D17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18">
+        <v>335998</v>
+      </c>
+      <c r="C18" s="2">
+        <v>39568</v>
+      </c>
+      <c r="D18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19">
+        <v>335999</v>
+      </c>
+      <c r="C19" s="2">
+        <v>39569</v>
+      </c>
+      <c r="D19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20">
+        <v>336000</v>
+      </c>
+      <c r="C20" s="2">
+        <v>39569</v>
+      </c>
+      <c r="D20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21">
+        <v>336001</v>
+      </c>
+      <c r="C21" s="2">
+        <v>39570</v>
+      </c>
+      <c r="D21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" t="s">
+        <v>125</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22">
+        <v>336002</v>
+      </c>
+      <c r="C22" s="2">
+        <v>39593</v>
+      </c>
+      <c r="D22" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23">
+        <v>336003</v>
+      </c>
+      <c r="C23" s="2">
+        <v>39571</v>
+      </c>
+      <c r="D23" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>152</v>
+      </c>
+      <c r="B24">
+        <v>336004</v>
+      </c>
+      <c r="C24" s="2">
+        <v>39572</v>
+      </c>
+      <c r="D24" t="s">
+        <v>153</v>
+      </c>
+      <c r="E24" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25">
+        <v>336005</v>
+      </c>
+      <c r="C25" s="2">
+        <v>39572</v>
+      </c>
+      <c r="D25" t="s">
+        <v>155</v>
+      </c>
+      <c r="E25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" t="s">
+        <v>117</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26">
+        <v>336006</v>
+      </c>
+      <c r="C26" s="2">
+        <v>39573</v>
+      </c>
+      <c r="D26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F43373-A9F3-4688-A3E7-60800156CB51}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>335982</v>
+      </c>
+      <c r="B2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" t="str">
+        <f>VLOOKUP(A2, 'IPL Cities'!B1:G26, 5)</f>
+        <v>Bangalore</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>335983</v>
+      </c>
+      <c r="B3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" t="str">
+        <f>VLOOKUP(A3, 'IPL Cities'!B2:G27, 5)</f>
+        <v>Chandigarh</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>335984</v>
+      </c>
+      <c r="B4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" t="str">
+        <f>VLOOKUP(A4, 'IPL Cities'!B3:G28, 5)</f>
+        <v>Delhi</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>335985</v>
+      </c>
+      <c r="B5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" t="str">
+        <f>VLOOKUP(A5, 'IPL Cities'!B4:G29, 5)</f>
+        <v>Mumbai</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>335986</v>
+      </c>
+      <c r="B6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" t="str">
+        <f>VLOOKUP(A6, 'IPL Cities'!B5:G30, 5)</f>
+        <v>Kolkata</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>335987</v>
+      </c>
+      <c r="B7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" t="str">
+        <f>VLOOKUP(A7, 'IPL Cities'!B6:G31, 5)</f>
+        <v>Jaipur</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>335988</v>
+      </c>
+      <c r="B8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" t="str">
+        <f>VLOOKUP(A8, 'IPL Cities'!B7:G32, 5)</f>
+        <v>Hyderabad</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>335989</v>
+      </c>
+      <c r="B9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" t="str">
+        <f>VLOOKUP(A9, 'IPL Cities'!B8:G33, 5)</f>
+        <v>Chennai</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>335990</v>
+      </c>
+      <c r="B10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" t="str">
+        <f>VLOOKUP(A10, 'IPL Cities'!B9:G34, 5)</f>
+        <v>Hyderabad</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>335991</v>
+      </c>
+      <c r="B11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" t="str">
+        <f>VLOOKUP(A11, 'IPL Cities'!B10:G35, 5)</f>
+        <v>Chandigarh</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>335992</v>
+      </c>
+      <c r="B12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" t="str">
+        <f>VLOOKUP(A12, 'IPL Cities'!B11:G36, 5)</f>
+        <v>Bangalore</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>335993</v>
+      </c>
+      <c r="B13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" t="str">
+        <f>VLOOKUP(A13, 'IPL Cities'!B12:G37, 5)</f>
+        <v>Chennai</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>335994</v>
+      </c>
+      <c r="B14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" t="str">
+        <f>VLOOKUP(A14, 'IPL Cities'!B13:G38, 5)</f>
+        <v>Mumbai</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>335995</v>
+      </c>
+      <c r="B15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" t="str">
+        <f>VLOOKUP(A15, 'IPL Cities'!B14:G39, 5)</f>
+        <v>Chandigarh</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>335996</v>
+      </c>
+      <c r="B16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" t="s">
+        <v>164</v>
+      </c>
+      <c r="E16" t="str">
+        <f>VLOOKUP(A16, 'IPL Cities'!B15:G40, 5)</f>
+        <v>Bangalore</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>335997</v>
+      </c>
+      <c r="B17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" t="s">
+        <v>162</v>
+      </c>
+      <c r="E17" t="str">
+        <f>VLOOKUP(A17, 'IPL Cities'!B16:G41, 5)</f>
+        <v>Kolkata</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>335998</v>
+      </c>
+      <c r="B18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" t="str">
+        <f>VLOOKUP(A18, 'IPL Cities'!B17:G42, 5)</f>
+        <v>Delhi</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>335999</v>
+      </c>
+      <c r="B19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" t="str">
+        <f>VLOOKUP(A19, 'IPL Cities'!B18:G43, 5)</f>
+        <v>Hyderabad</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>336000</v>
+      </c>
+      <c r="B20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" t="s">
+        <v>162</v>
+      </c>
+      <c r="D20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E20" t="str">
+        <f>VLOOKUP(A20, 'IPL Cities'!B19:G44, 5)</f>
+        <v>Jaipur</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>336001</v>
+      </c>
+      <c r="B21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" t="s">
+        <v>164</v>
+      </c>
+      <c r="E21" t="str">
+        <f>VLOOKUP(A21, 'IPL Cities'!B20:G45, 5)</f>
+        <v>Chennai</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>336002</v>
+      </c>
+      <c r="B22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" t="s">
+        <v>168</v>
+      </c>
+      <c r="E22" t="str">
+        <f>VLOOKUP(A22, 'IPL Cities'!B21:G46, 5)</f>
+        <v>Hyderabad</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>336003</v>
+      </c>
+      <c r="B23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" t="str">
+        <f>VLOOKUP(A23, 'IPL Cities'!B22:G47, 5)</f>
+        <v>Chandigarh</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>336004</v>
+      </c>
+      <c r="B24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D24" t="s">
+        <v>165</v>
+      </c>
+      <c r="E24" t="str">
+        <f>VLOOKUP(A24, 'IPL Cities'!B23:G48, 5)</f>
+        <v>Mumbai</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>336005</v>
+      </c>
+      <c r="B25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" t="s">
+        <v>164</v>
+      </c>
+      <c r="D25" t="s">
+        <v>164</v>
+      </c>
+      <c r="E25" t="str">
+        <f>VLOOKUP(A25, 'IPL Cities'!B24:G49, 5)</f>
+        <v>Jaipur</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>336006</v>
+      </c>
+      <c r="B26" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" t="s">
+        <v>163</v>
+      </c>
+      <c r="E26" t="str">
+        <f>VLOOKUP(A26, 'IPL Cities'!B25:G50, 5)</f>
+        <v>Bangalore</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0797018F-6B49-447F-9EBF-177A44BE5E65}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5C923A-140C-4319-8A47-DE470C513075}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2">
+        <v>90</v>
+      </c>
+      <c r="C2">
+        <v>80</v>
+      </c>
+      <c r="D2">
+        <v>45</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>25</v>
+      </c>
+      <c r="G2">
+        <v>150</v>
+      </c>
+      <c r="H2">
+        <v>40</v>
+      </c>
+      <c r="I2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" t="str">
+        <f>HLOOKUP(B1, cities!A1:I2, 2)</f>
+        <v>Ahmedabad</v>
+      </c>
+      <c r="C3" t="str">
+        <f>HLOOKUP(C1, cities!B1:J2, 2)</f>
+        <v>Surat</v>
+      </c>
+      <c r="D3" t="str">
+        <f>HLOOKUP(D1, cities!C1:K2, 2)</f>
+        <v>Rajkot</v>
+      </c>
+      <c r="E3" t="str">
+        <f>HLOOKUP(E1, cities!D1:L2, 2)</f>
+        <v>Vadodara</v>
+      </c>
+      <c r="F3" t="str">
+        <f>HLOOKUP(F1, cities!E1:M2, 2)</f>
+        <v>Bhuj</v>
+      </c>
+      <c r="G3" t="str">
+        <f>HLOOKUP(G1, cities!F1:N2, 2)</f>
+        <v>Kolkata</v>
+      </c>
+      <c r="H3" t="str">
+        <f>HLOOKUP(H1, cities!G1:O2, 2)</f>
+        <v>Gorakhpur</v>
+      </c>
+      <c r="I3" t="str">
+        <f>HLOOKUP(I1, cities!H1:P2, 2)</f>
+        <v>Mehsana</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>